--- a/Texte/Textbausteine Vot-Tool 2.0.xlsx
+++ b/Texte/Textbausteine Vot-Tool 2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="205">
   <si>
     <t>Text_ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Ergebnisse aus dem Kanton #Kanton_d</t>
   </si>
   <si>
+    <t>Résultats du canton de #Kanton_f</t>
+  </si>
+  <si>
     <t>Risultati dal canton #Kanton_i</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Bern</t>
   </si>
   <si>
+    <t>Berne</t>
+  </si>
+  <si>
     <t>BERNA</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Die detaillierten Ergebnisse der Eidgenössischen Abstimmungen aus dem #Kanton_d</t>
   </si>
   <si>
+    <t>Les résultats des votations fédérales dans le canton de #Kanton_f</t>
+  </si>
+  <si>
     <t>I risultati dettagliati della votazioni federali nel canton #Kanton_i</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>#Name_Vorlage_d: #Result_Text_d</t>
   </si>
   <si>
+    <t>#Name_Vorlage_f: #Result_Text_f</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_i: #Result_Text_i</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>Ja-Anteil: #yes_percentage Prozent (#yes_absolut Stimmen)</t>
   </si>
   <si>
+    <t>Pourcentage de oui: #yes_percentage % (#yes_absolut oui)</t>
+  </si>
+  <si>
     <t>Quota di "sì": #yes_percentage per cento (#yes_absolut voti)</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>Nein-Anteil: #no_percentage Prozent (#no_absolut Stimmen)</t>
   </si>
   <si>
+    <t>Pourcentage de non: #no_percentage % (#no_absolut non)</t>
+  </si>
+  <si>
     <t>Quota di "no": #no_percentage per cento (#no_absolut voti)</t>
   </si>
   <si>
@@ -103,6 +121,9 @@
     <t>Stimmbeteiligung: #voter_share Prozent</t>
   </si>
   <si>
+    <t>Taux de participation: #voter_share Prozent</t>
+  </si>
+  <si>
     <t>Partecipazione al voto: #voter_share per cento</t>
   </si>
   <si>
@@ -112,6 +133,9 @@
     <t>Zwischenstand:</t>
   </si>
   <si>
+    <t>Résultat intermédiaire:</t>
+  </si>
+  <si>
     <t>Risultato intermedio:</t>
   </si>
   <si>
@@ -124,6 +148,9 @@
     <t>Endergebnis:</t>
   </si>
   <si>
+    <t>Résultat final:</t>
+  </si>
+  <si>
     <t>Risultato finale:</t>
   </si>
   <si>
@@ -133,12 +160,21 @@
     <t>Zwischenstand aller Vorlagen:</t>
   </si>
   <si>
+    <t>Résulats intermédiaires de tous les objets:</t>
+  </si>
+  <si>
     <t>Risultato intermedio di tutti gli oggetti:</t>
   </si>
   <si>
+    <t>Text_CH_header_all_cantons_counted_several_votes</t>
+  </si>
+  <si>
     <t>Endergebnis aller Vorlagen:</t>
   </si>
   <si>
+    <t>Résultats finaux de tous les objets:</t>
+  </si>
+  <si>
     <t>Risultato finale di tutti gli oggetti:</t>
   </si>
   <si>
@@ -148,6 +184,9 @@
     <t>#Name_Vorlage_d:</t>
   </si>
   <si>
+    <t>#Name_Vorlage_f:</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_i:</t>
   </si>
   <si>
@@ -157,6 +196,9 @@
     <t>Ein Kanton ausgezählt</t>
   </si>
   <si>
+    <t>Résultat d'un canton</t>
+  </si>
+  <si>
     <t>Un cantone è stato scrutinato</t>
   </si>
   <si>
@@ -166,6 +208,9 @@
     <t>#cantons_counted von 26 Kantonen ausgezählt</t>
   </si>
   <si>
+    <t>Résultats définitifs dans #canton_counted canton(s) sur 26</t>
+  </si>
+  <si>
     <t>#cantons_counted di 26 cantoni sono stati scrutinati</t>
   </si>
   <si>
@@ -181,6 +226,9 @@
     <t>Vorlage am Ständemehr gescheitert</t>
   </si>
   <si>
+    <t>Refusé par la majorité des cantons</t>
+  </si>
+  <si>
     <t>L'oggetto non ha raggiunto la maggioranza dei cantoni</t>
   </si>
   <si>
@@ -193,6 +241,9 @@
     <t>Vorlage hat Ständemehr erreicht</t>
   </si>
   <si>
+    <t>Accepté à la majorité des cantons</t>
+  </si>
+  <si>
     <t>L'oggetto ha raggiunto la maggioranza dei cantoni</t>
   </si>
   <si>
@@ -202,6 +253,9 @@
     <t>gemäss SRG-Trend abgelehnt</t>
   </si>
   <si>
+    <t>a été accepté (gfs.bern)</t>
+  </si>
+  <si>
     <t>stando alle tendenze SSR rifiutato</t>
   </si>
   <si>
@@ -214,6 +268,9 @@
     <t>gemäss SRG-Trend angenommen</t>
   </si>
   <si>
+    <t>a été rejeté (gfs.bern)</t>
+  </si>
+  <si>
     <t>stando alle tendenze SSR accolto</t>
   </si>
   <si>
@@ -223,6 +280,9 @@
     <t xml:space="preserve">gemäss SRG-Hochrechnung (#Hochrechnung_time) mit #hochrechnung_yes Prozent Ja-Stimmen angenommen </t>
   </si>
   <si>
+    <t>a été accepté avec #hochrechnung_yes % de oui, selon une tendance de gfs.bern (#Hochrechnung_time)</t>
+  </si>
+  <si>
     <t>stando alle proiezioni della SSR (#Hochrechnung_time) accolto con il #hochrechnung_yes per cento di "sì"</t>
   </si>
   <si>
@@ -233,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">gemäss SRG-Hochrechnung (#Hochrechnung_time) mit #hochrechnung_no Prozent Nein-Stimmen abgelehnt </t>
+  </si>
+  <si>
+    <t>a été rejeté avec #hochrechnung_no % de non, selon une tendance de gfs.bern  (#Hochrechnung_time)</t>
   </si>
   <si>
     <t>stando alle proiezioni della SSR (#Hochrechnung_time) respinto con il #hochrechnung_no per cento di "no"</t>
@@ -245,6 +308,9 @@
 Aus folgenden Kantonen fehlen die Ergebnisse: #List_missing_cantons</t>
   </si>
   <si>
+    <t>Les résultas ne sont pas encore connus dans ce canton: #List_missing_cantons</t>
+  </si>
+  <si>
     <t>Dei seguenti cantoni non sono ancora noti i risultati: #List_missing_cantons</t>
   </si>
   <si>
@@ -255,6 +321,9 @@
   </si>
   <si>
     <t>Aus folgendem Kanton fehlen die Ergebnisse: #List_missing_cantons</t>
+  </si>
+  <si>
+    <t>Seuls les résultats du canton de #List_missing_cantons manquent.</t>
   </si>
   <si>
     <t>Wenn ausstehende Resultate nur noch ein Kanton</t>
@@ -279,7 +348,7 @@
     </r>
   </si>
   <si>
-    <t>Cette dépêche a été générée automatiquement sur la base des données de l'Office fédéral de la statistique (OFS).</t>
+    <t>Cette dépêche a été générée automatiquement sur la base des données de l'Office fédéral de la statistique (OFS). Elle a été relue avant sa publication.</t>
   </si>
   <si>
     <t>Questa notizia è stata generata automaticamente in base ai dati dell'Ufficio federale di statistica (UST) e verificata prima della pubblicazione.</t>
@@ -304,7 +373,7 @@
     </r>
   </si>
   <si>
-    <t>Cette dépêche a été générée automatiquement sur la base des données du canton de #Kanton_f.</t>
+    <t>Cette dépêche a été générée automatiquement sur la base des données du canton de #Kanton_f. Elle a été relue avant sa publication.</t>
   </si>
   <si>
     <t>Questa notizia è stata generata automaticamente in base ai dati del canton di #Kanton_i e verificata prima della pubblicazione.</t>
@@ -397,6 +466,9 @@
     <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt.</t>
   </si>
   <si>
+    <t>Cette dépêche a été générée automatiquement sur la base des données de l'Office fédéral de la statistique (OFS).</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_d: Schlusstabelle</t>
   </si>
   <si>
@@ -508,7 +580,7 @@
     <t>SRG-Hochrechnung: #result_no Prozent Nein zu #Name_Vorlage_d</t>
   </si>
   <si>
-    <t>Proiezioni della SSR: #result_yes per cento di "no" per l'oggetto "#Name_Vorlage_i"</t>
+    <t>Proiezioni della SSR: #result_no per cento di "no" per l'oggetto "#Name_Vorlage_i"</t>
   </si>
   <si>
     <t>Headline_even</t>
@@ -517,49 +589,49 @@
     <t>SRG-Hochrechnung: Pattsituation bei #Name_Vorlage_d</t>
   </si>
   <si>
+    <t>#Name_Vorlage_d am Ständemehr gescheitert</t>
+  </si>
+  <si>
+    <t>L'oggetto "#Name_Vorlage_i" non ha raggiunto la maggioranza dei cantoni</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t>#Kanton_d</t>
+  </si>
+  <si>
+    <t>Genf</t>
+  </si>
+  <si>
+    <t>#Kanton_f</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>#Kanton_i</t>
+  </si>
+  <si>
+    <t>Genevra</t>
+  </si>
+  <si>
+    <t>#Kanton_short</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>#Name_Vorlage</t>
+  </si>
+  <si>
+    <t>Biodiversitätsinitiative</t>
+  </si>
+  <si>
     <t>#Topic_Vorlage</t>
-  </si>
-  <si>
-    <t>#Name_Vorlage_d am Ständemehr gescheitert</t>
-  </si>
-  <si>
-    <t>L'oggetto "#Name_Vorlage_i" non ha raggiunto la maggioranza dei cantoni</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Beispiel</t>
-  </si>
-  <si>
-    <t>#Kanton_d</t>
-  </si>
-  <si>
-    <t>Genf</t>
-  </si>
-  <si>
-    <t>#Kanton_f</t>
-  </si>
-  <si>
-    <t>Genève</t>
-  </si>
-  <si>
-    <t>#Kanton_i</t>
-  </si>
-  <si>
-    <t>Genevra</t>
-  </si>
-  <si>
-    <t>#Kanton_short</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>#Name_Vorlage</t>
-  </si>
-  <si>
-    <t>Biodiversitätsinitiative</t>
   </si>
   <si>
     <t>Umwelt</t>
@@ -1091,354 +1163,400 @@
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="16" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -1486,11 +1604,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1499,242 +1617,242 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1782,11 +1900,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1795,176 +1913,176 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="21" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="18" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="22" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="20" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="20" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -2012,48 +2130,48 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2101,58 +2219,58 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -2200,11 +2318,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -2213,23 +2331,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -2254,90 +2372,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12">

--- a/Texte/Textbausteine Vot-Tool 2.0.xlsx
+++ b/Texte/Textbausteine Vot-Tool 2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="204">
   <si>
     <t>Text_ID</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Die detaillierten Ergebnisse der Eidgenössischen Abstimmungen aus dem #Kanton_d</t>
+    <t>Die detaillierten Ergebnisse der Eidgenössischen Abstimmungen aus dem Kanton #Kanton_d</t>
   </si>
   <si>
     <t>Les résultats des votations fédérales dans le canton de #Kanton_f</t>
@@ -277,7 +277,7 @@
     <t>Text_CH_Hochrechnung_yes</t>
   </si>
   <si>
-    <t xml:space="preserve">gemäss SRG-Hochrechnung (#Hochrechnung_time) mit #hochrechnung_yes Prozent Ja-Stimmen angenommen </t>
+    <t xml:space="preserve">gemäss SRG-Hochrechnung (#Hochrechnung_time Uhr) mit #hochrechnung_yes Prozent Ja-Stimmen angenommen </t>
   </si>
   <si>
     <t>a été accepté avec #hochrechnung_yes % de oui, selon une tendance de gfs.bern (#Hochrechnung_time)</t>
@@ -292,7 +292,7 @@
     <t>Text_CH_Hochrechnung_no</t>
   </si>
   <si>
-    <t xml:space="preserve">gemäss SRG-Hochrechnung (#Hochrechnung_time) mit #hochrechnung_no Prozent Nein-Stimmen abgelehnt </t>
+    <t xml:space="preserve">gemäss SRG-Hochrechnung (#Hochrechnung_time Uhr) mit #hochrechnung_no Prozent Nein-Stimmen abgelehnt </t>
   </si>
   <si>
     <t>a été rejeté avec #hochrechnung_no % de non, selon une tendance de gfs.bern  (#Hochrechnung_time)</t>
@@ -463,10 +463,7 @@
     <t>Descrizione delle colonne: cantone, "sì"; quota di "sì"; "no"; quota di "no"; partecipazione al voto</t>
   </si>
   <si>
-    <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt.</t>
-  </si>
-  <si>
-    <t>Cette dépêche a été générée automatiquement sur la base des données de l'Office fédéral de la statistique (OFS).</t>
+    <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.</t>
   </si>
   <si>
     <t>#Name_Vorlage_d: Schlusstabelle</t>
@@ -1150,7 +1147,9 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1849,10 +1848,10 @@
         <v>139</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1913,11 +1912,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
@@ -1938,11 +1937,11 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -1950,40 +1949,40 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>71</v>
@@ -1991,10 +1990,10 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -2006,10 +2005,10 @@
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -2021,40 +2020,40 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -2079,10 +2078,10 @@
         <v>139</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -2130,36 +2129,36 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -2219,44 +2218,44 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2318,11 +2317,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -2331,11 +2330,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -2372,90 +2371,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>193</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>199</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12">

--- a/Texte/Textbausteine Vot-Tool 2.0.xlsx
+++ b/Texte/Textbausteine Vot-Tool 2.0.xlsx
@@ -523,7 +523,7 @@
     <t>Ja-Kantone: #List_cantons_yes</t>
   </si>
   <si>
-    <t>Cantoni favorevoli al "sì"</t>
+    <t>Cantoni favorevoli al "sì": #List_cantons_yes</t>
   </si>
   <si>
     <t>Text_Cantons_no</t>
@@ -532,7 +532,7 @@
     <t>Nein-Kantone: #List_cantons_no</t>
   </si>
   <si>
-    <t>Cantoni favorevoli al "no"</t>
+    <t>Cantoni favorevoli al "no": #List_cantons_no</t>
   </si>
   <si>
     <t>Tabelle_Resultate_Schweiz</t>

--- a/Texte/Textbausteine Vot-Tool 2.0.xlsx
+++ b/Texte/Textbausteine Vot-Tool 2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="232">
   <si>
     <t>Text_ID</t>
   </si>
@@ -121,7 +121,7 @@
     <t>Stimmbeteiligung: #voter_share Prozent</t>
   </si>
   <si>
-    <t>Taux de participation: #voter_share Prozent</t>
+    <t>Taux de participation: #voter_share %</t>
   </si>
   <si>
     <t>Partecipazione al voto: #voter_share per cento</t>
@@ -208,7 +208,7 @@
     <t>#cantons_counted von 26 Kantonen ausgezählt</t>
   </si>
   <si>
-    <t>Résultats définitifs dans #canton_counted canton(s) sur 26</t>
+    <t>Résultats définitifs dans #cantons_counted cantons sur 26</t>
   </si>
   <si>
     <t>#cantons_counted di 26 cantoni sono stati scrutinati</t>
@@ -382,42 +382,69 @@
     <t>vot Tabelle</t>
   </si>
   <si>
+    <t>vot Tableau</t>
+  </si>
+  <si>
     <t>vot tabella</t>
   </si>
   <si>
     <t>#Name_Vorlage_d: Übersicht nach #cantons_counted Kantonen</t>
   </si>
   <si>
+    <t>#Name_Vorlage_f: résultats après #cantons_counted cantons</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_i: Panoramica dei #cantons_counted cantoni</t>
   </si>
   <si>
     <t>Lead_name</t>
   </si>
   <si>
+    <t>#Name_Vorlage_f</t>
+  </si>
+  <si>
     <t>Lead_counted_cantons_one</t>
   </si>
   <si>
+    <t>Dépouillement terminé dans un canton</t>
+  </si>
+  <si>
     <t>Un cantone scrutinato</t>
   </si>
   <si>
     <t>Lead_counted_cantons_several</t>
   </si>
   <si>
+    <t>Dépouillement terminé dans #cantons_counted des 26 cantons</t>
+  </si>
+  <si>
     <t>#cantons_counted dei 26 cantoni sono stati scrutinati</t>
   </si>
   <si>
     <t>Lead_staendemehr_fail</t>
   </si>
   <si>
+    <t>Echec à la majorité des cantons</t>
+  </si>
+  <si>
     <t>Lead_standemehr_success</t>
   </si>
   <si>
+    <t>A obtenu la majorité des cantons</t>
+  </si>
+  <si>
     <t>Lead_Trend_no</t>
   </si>
   <si>
+    <t>rejeté selon une estimation de gfs.bern</t>
+  </si>
+  <si>
     <t>Lead_Trend_yes</t>
   </si>
   <si>
+    <t>accepté selon une estimation de gfs.bern</t>
+  </si>
+  <si>
     <t>Lead_Hochrechnung_yes</t>
   </si>
   <si>
@@ -436,6 +463,9 @@
     <t>Übersicht der bereits ausgezählten Stände: #staende_yes Ja, #staende_no Nein</t>
   </si>
   <si>
+    <t>#staende_yes ont accepté le texte et #staende_no l'ont rejeté</t>
+  </si>
+  <si>
     <t>Panoramica dei cantoni già scrutinati: #staende_yes "sì", #staende_no "no"</t>
   </si>
   <si>
@@ -448,6 +478,9 @@
     <t>Übersicht der bereits ausgezählten Kantone:</t>
   </si>
   <si>
+    <t>Nombre de cantons qui ont terminé le dépouillement:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Panoramica dei cantoni già scrutinati: </t>
   </si>
   <si>
@@ -460,6 +493,9 @@
     <t>Spaltenbeschriftung: Kanton, Ja; Ja-Anteil; Nein; Nein-Anteil; Stimmbeteiligung</t>
   </si>
   <si>
+    <t>Canton, Oui, Pourcentage de oui, Non, Pourcentage de non, Taux de participation</t>
+  </si>
+  <si>
     <t>Descrizione delle colonne: cantone, "sì"; quota di "sì"; "no"; quota di "no"; partecipazione al voto</t>
   </si>
   <si>
@@ -469,6 +505,9 @@
     <t>#Name_Vorlage_d: Schlusstabelle</t>
   </si>
   <si>
+    <t>#Name_Vorlage_f: tableau final</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_i: tabella dei risultati finali</t>
   </si>
   <si>
@@ -484,6 +523,9 @@
     <t>Vorlage mit #result_yes Prozent Ja-Stimmen angenommen</t>
   </si>
   <si>
+    <t>Objet accepté avec #result_yes % de oui</t>
+  </si>
+  <si>
     <t>L'oggetto è stato accolto con il #result_yes per cento di voti favorevoli</t>
   </si>
   <si>
@@ -493,6 +535,9 @@
     <t>Vorlage mit #result_no Prozent Nein-Stimmen abgelehnt</t>
   </si>
   <si>
+    <t>Objet rejeté avec #result_no % de non</t>
+  </si>
+  <si>
     <t>L'oggetto è stato respinto con il #result_no per cento di voti contrari</t>
   </si>
   <si>
@@ -502,6 +547,9 @@
     <t>Stände: #staende_yes Ja, #staende_no Nein</t>
   </si>
   <si>
+    <t>Cantons: #staende_yes oui, #staende_no non</t>
+  </si>
+  <si>
     <t>Cantoni: #staende_yes "sì", #staende_no "no"</t>
   </si>
   <si>
@@ -511,18 +559,27 @@
     <t>(am Ständemehr gescheitert)</t>
   </si>
   <si>
+    <t>(échoue à la majorité des cantons)</t>
+  </si>
+  <si>
     <t>Text_standemehr_success</t>
   </si>
   <si>
     <t>(Ständemehr erreicht)</t>
   </si>
   <si>
+    <t>(a obtenu la majorité des cantons)</t>
+  </si>
+  <si>
     <t>Text_Cantons_yes</t>
   </si>
   <si>
     <t>Ja-Kantone: #List_cantons_yes</t>
   </si>
   <si>
+    <t>Cantons pour: #List_cantons_yes</t>
+  </si>
+  <si>
     <t>Cantoni favorevoli al "sì": #List_cantons_yes</t>
   </si>
   <si>
@@ -532,6 +589,9 @@
     <t>Nein-Kantone: #List_cantons_no</t>
   </si>
   <si>
+    <t>Cantons contre: #List_cantons_no</t>
+  </si>
+  <si>
     <t>Cantoni favorevoli al "no": #List_cantons_no</t>
   </si>
   <si>
@@ -541,12 +601,18 @@
     <t>Spaltenbeschriftung: Ja; Ja-Anteil; Nein; Nein-Anteil; Stimmbeteiligung</t>
   </si>
   <si>
+    <t>Oui, Pourcentage de oui, Non, Pourcentage de non, Taux de participation</t>
+  </si>
+  <si>
     <t>Descrizione delle colonne: "sì"; quota di "sì"; "no"; quota di "no"; partecipazione al voto</t>
   </si>
   <si>
     <t>#Topic_Vorlage_d</t>
   </si>
   <si>
+    <t>#Topic_Vorlage_f</t>
+  </si>
+  <si>
     <t>#Topic_Vorlage_i</t>
   </si>
   <si>
@@ -556,6 +622,9 @@
     <t>#Name_Vorlage_d gemäss SRG-Trendrechnung angenommen</t>
   </si>
   <si>
+    <t>#Name_Vorlage_f accepté selon une Tendance de gfs.bern</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_i: oggetto accolto stando alle tendenze SSR</t>
   </si>
   <si>
@@ -565,18 +634,27 @@
     <t>#Name_Vorlage_d gemäss SRG-Trendrechnung abgelehnt</t>
   </si>
   <si>
+    <t>#Name_Vorlage_f rejeté selon une Tendance de gfs.bern</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_i: oggetto respinto stando alle tendenze SSR</t>
   </si>
   <si>
     <t>SRG-Hochrechnung: #result_yes Prozent Ja zu #Name_Vorlage_d</t>
   </si>
   <si>
+    <t>Tendance gfs.bern: #result_yes % de oui pour #Name_Vorlage_f</t>
+  </si>
+  <si>
     <t>Proiezioni della SSR: #result_yes per cento di "sì" per l'oggetto "#Name_Vorlage_i"</t>
   </si>
   <si>
     <t>SRG-Hochrechnung: #result_no Prozent Nein zu #Name_Vorlage_d</t>
   </si>
   <si>
+    <t>Tendance gfs.bern: #result_no % de non pour #Name_Vorlage_f</t>
+  </si>
+  <si>
     <t>Proiezioni della SSR: #result_no per cento di "no" per l'oggetto "#Name_Vorlage_i"</t>
   </si>
   <si>
@@ -586,7 +664,13 @@
     <t>SRG-Hochrechnung: Pattsituation bei #Name_Vorlage_d</t>
   </si>
   <si>
+    <t>Tendance incertaine pour #Name_Vorlage_f</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_d am Ständemehr gescheitert</t>
+  </si>
+  <si>
+    <t>#Name_Vorlage_f échoue à la majorité des cantons</t>
   </si>
   <si>
     <t>L'oggetto "#Name_Vorlage_i" non ha raggiunto la maggioranza dei cantoni</t>
@@ -708,7 +792,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,12 +821,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -788,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -822,27 +900,24 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -852,16 +927,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -870,10 +945,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1284,7 @@
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1268,7 +1343,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1285,7 +1360,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1297,12 +1372,12 @@
       <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1317,7 +1392,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1332,7 +1407,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1349,7 +1424,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1364,7 +1439,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1379,7 +1454,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1394,7 +1469,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1411,7 +1486,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1428,7 +1503,7 @@
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1445,7 +1520,7 @@
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1462,7 +1537,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1479,7 +1554,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1496,7 +1571,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1513,7 +1588,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1530,7 +1605,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1539,13 +1614,13 @@
       <c r="C26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1554,7 +1629,7 @@
       <c r="C27" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>110</v>
       </c>
       <c r="E27" s="7"/>
@@ -1605,9 +1680,11 @@
       <c r="B2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1616,11 +1693,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -1630,7 +1709,9 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1638,12 +1719,14 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1653,38 +1736,44 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>70</v>
       </c>
@@ -1694,12 +1783,14 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>75</v>
       </c>
@@ -1709,12 +1800,14 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>79</v>
       </c>
@@ -1724,12 +1817,14 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>84</v>
       </c>
@@ -1739,12 +1834,14 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>88</v>
       </c>
@@ -1753,13 +1850,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>125</v>
+      <c r="A13" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>93</v>
       </c>
@@ -1768,13 +1867,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
-        <v>126</v>
+      <c r="A14" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>97</v>
       </c>
@@ -1783,13 +1884,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>127</v>
+      <c r="A15" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D15" s="6" t="s">
         <v>97</v>
       </c>
@@ -1798,59 +1901,65 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>128</v>
+      <c r="A16" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>132</v>
+      <c r="A17" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>135</v>
+        <v>145</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="6"/>
+      <c r="A18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="D18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E19" s="7"/>
@@ -1901,9 +2010,11 @@
       <c r="B2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1912,11 +2023,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -1926,7 +2039,9 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1937,65 +2052,75 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>144</v>
+      <c r="A6" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>147</v>
+      <c r="A7" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>150</v>
+      <c r="A8" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="21" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>153</v>
+      <c r="A9" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>70</v>
       </c>
@@ -2004,13 +2129,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>155</v>
+      <c r="A10" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>75</v>
       </c>
@@ -2019,68 +2146,76 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
-        <v>157</v>
+      <c r="A11" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="18" t="s">
-        <v>159</v>
+        <v>176</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>160</v>
+      <c r="A12" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="22" t="s">
-        <v>162</v>
+        <v>180</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>163</v>
+      <c r="A13" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>184</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="A14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="7"/>
@@ -2129,36 +2264,42 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -2168,7 +2309,9 @@
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
@@ -2218,46 +2361,54 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6">
@@ -2267,7 +2418,9 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
@@ -2317,11 +2470,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -2330,11 +2485,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -2344,7 +2501,9 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
@@ -2370,116 +2529,116 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>183</v>
+      <c r="A1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>185</v>
+      <c r="A2" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>187</v>
+      <c r="A3" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>189</v>
+      <c r="A4" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>191</v>
+      <c r="A5" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>193</v>
+      <c r="A6" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>195</v>
+      <c r="A7" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>197</v>
+      <c r="A8" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>199</v>
+      <c r="A9" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>201</v>
+      <c r="A10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>203</v>
+      <c r="A11" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Texte/Textbausteine Vot-Tool 2.0.xlsx
+++ b/Texte/Textbausteine Vot-Tool 2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="235">
   <si>
     <t>Text_ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Catchword</t>
   </si>
   <si>
-    <t>vot #Kanton_short</t>
+    <t>Eidg. Abstimmungen</t>
+  </si>
+  <si>
+    <t>Votations fédérales</t>
+  </si>
+  <si>
+    <t>Votazioni federali</t>
   </si>
   <si>
     <t>Headline</t>
@@ -55,25 +61,25 @@
     <t>Provider-Location</t>
   </si>
   <si>
-    <t>Bern</t>
-  </si>
-  <si>
-    <t>Berne</t>
-  </si>
-  <si>
-    <t>BERNA</t>
+    <t>#Hauptort_d</t>
+  </si>
+  <si>
+    <t>#Hauptort_f</t>
+  </si>
+  <si>
+    <t>#Hauptort_i</t>
   </si>
   <si>
     <t>Lead</t>
   </si>
   <si>
-    <t>Die detaillierten Ergebnisse der Eidgenössischen Abstimmungen aus dem Kanton #Kanton_d</t>
-  </si>
-  <si>
-    <t>Les résultats des votations fédérales dans le canton de #Kanton_f</t>
-  </si>
-  <si>
-    <t>I risultati dettagliati della votazioni federali nel canton #Kanton_i</t>
+    <t>Die detaillierten Ergebnisse der Eidgenössischen Abstimmungen aus dem Kanton #Kanton_d (#Kanton_short)</t>
+  </si>
+  <si>
+    <t>Les résultats des votations fédérales dans le canton de #Kanton_f (#Kanton_short)</t>
+  </si>
+  <si>
+    <t>I risultati dettagliati della votazioni federali nel canton #Kanton_i (#Kanton_short)</t>
   </si>
   <si>
     <t>Text_results_canton_header</t>
@@ -100,7 +106,7 @@
     <t>Pourcentage de oui: #yes_percentage % (#yes_absolut oui)</t>
   </si>
   <si>
-    <t>Quota di "sì": #yes_percentage per cento (#yes_absolut voti)</t>
+    <t>Quota di "sì": #yes_percentage % (#yes_absolut voti)</t>
   </si>
   <si>
     <t>Text_results_canton_no</t>
@@ -112,7 +118,7 @@
     <t>Pourcentage de non: #no_percentage % (#no_absolut non)</t>
   </si>
   <si>
-    <t>Quota di "no": #no_percentage per cento (#no_absolut voti)</t>
+    <t>Quota di "no": #no_percentage % (#no_absolut voti)</t>
   </si>
   <si>
     <t>Text_results_canton_voter_share</t>
@@ -124,7 +130,7 @@
     <t>Taux de participation: #voter_share %</t>
   </si>
   <si>
-    <t>Partecipazione al voto: #voter_share per cento</t>
+    <t>Partecipazione al voto: #voter_share %</t>
   </si>
   <si>
     <t>Text_CH_header_one_vote</t>
@@ -283,7 +289,7 @@
     <t>a été accepté avec #hochrechnung_yes % de oui, selon une tendance de gfs.bern (#Hochrechnung_time)</t>
   </si>
   <si>
-    <t>stando alle proiezioni della SSR (#Hochrechnung_time) accolto con il #hochrechnung_yes per cento di "sì"</t>
+    <t>stando alle proiezioni della SSR (#Hochrechnung_time) accolto con il #hochrechnung_yes % di "sì"</t>
   </si>
   <si>
     <t>Aktuellste Hochrechnung</t>
@@ -298,7 +304,7 @@
     <t>a été rejeté avec #hochrechnung_no % de non, selon une tendance de gfs.bern  (#Hochrechnung_time)</t>
   </si>
   <si>
-    <t>stando alle proiezioni della SSR (#Hochrechnung_time) respinto con il #hochrechnung_no per cento di "no"</t>
+    <t>stando alle proiezioni della SSR (#Hochrechnung_time) respinto con il #hochrechnung_no  % di "no"</t>
   </si>
   <si>
     <t>Text_CH_missing_cantons_several</t>
@@ -337,14 +343,14 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt </t>
+      <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>und vor der Publikation überprüft.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -362,14 +368,14 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Kanton #Kanton_d erstellt </t>
+      <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Kanton #Kanton_d erstellt und vor der Publikation überprüft</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>und vor der Publikation überprüft.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -379,13 +385,13 @@
     <t>Questa notizia è stata generata automaticamente in base ai dati del canton di #Kanton_i e verificata prima della pubblicazione.</t>
   </si>
   <si>
-    <t>vot Tabelle</t>
-  </si>
-  <si>
-    <t>vot Tableau</t>
-  </si>
-  <si>
-    <t>vot tabella</t>
+    <t>#Topic_Vorlage_d</t>
+  </si>
+  <si>
+    <t>#Topic_Vorlage_f</t>
+  </si>
+  <si>
+    <t>#Topic_Vorlage_i</t>
   </si>
   <si>
     <t>#Name_Vorlage_d: Übersicht nach #cantons_counted Kantonen</t>
@@ -397,123 +403,135 @@
     <t>#Name_Vorlage_i: Panoramica dei #cantons_counted cantoni</t>
   </si>
   <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Berne</t>
+  </si>
+  <si>
+    <t>BERNA</t>
+  </si>
+  <si>
     <t>Lead_name</t>
   </si>
   <si>
+    <t>Lead_counted_cantons_one</t>
+  </si>
+  <si>
+    <t>Dépouillement terminé dans un canton</t>
+  </si>
+  <si>
+    <t>Un cantone scrutinato</t>
+  </si>
+  <si>
+    <t>Lead_counted_cantons_several</t>
+  </si>
+  <si>
+    <t>Dépouillement terminé dans #cantons_counted des 26 cantons</t>
+  </si>
+  <si>
+    <t>#cantons_counted dei 26 cantoni sono stati scrutinati</t>
+  </si>
+  <si>
+    <t>Lead_staendemehr_fail</t>
+  </si>
+  <si>
+    <t>Echec à la majorité des cantons</t>
+  </si>
+  <si>
+    <t>Lead_standemehr_success</t>
+  </si>
+  <si>
+    <t>A obtenu la majorité des cantons</t>
+  </si>
+  <si>
+    <t>Lead_Trend_no</t>
+  </si>
+  <si>
+    <t>rejeté selon une estimation de gfs.bern</t>
+  </si>
+  <si>
+    <t>Lead_Trend_yes</t>
+  </si>
+  <si>
+    <t>accepté selon une estimation de gfs.bern</t>
+  </si>
+  <si>
+    <t>Lead_Hochrechnung_yes</t>
+  </si>
+  <si>
+    <t>Lead_Hochrechnung_no</t>
+  </si>
+  <si>
+    <t>stando alle proiezioni della SSR (#Hochrechnung_time) respinto con il #hochrechnung_no % di "no"</t>
+  </si>
+  <si>
+    <t>Text_missing_cantons_several</t>
+  </si>
+  <si>
+    <t>Text_missing_cantons_one</t>
+  </si>
+  <si>
+    <t>Tabelle_Header_Staende</t>
+  </si>
+  <si>
+    <t>Übersicht der bereits ausgezählten Stände: #staende_yes Ja, #staende_no Nein</t>
+  </si>
+  <si>
+    <t>#staende_yes ont accepté le texte et #staende_no l'ont rejeté</t>
+  </si>
+  <si>
+    <t>Panoramica dei cantoni già scrutinati: #staende_yes "sì", #staende_no "no"</t>
+  </si>
+  <si>
+    <t>Wenn Ständemehr nötig</t>
+  </si>
+  <si>
+    <t>Tabelle_Header_general</t>
+  </si>
+  <si>
+    <t>Übersicht der bereits ausgezählten Kantone:</t>
+  </si>
+  <si>
+    <t>Nombre de cantons qui ont terminé le dépouillement:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramica dei cantoni già scrutinati: </t>
+  </si>
+  <si>
+    <t>Wenn Ständemehr nicht nötig</t>
+  </si>
+  <si>
+    <t>Tabelle_Resultate_pro_Kanton</t>
+  </si>
+  <si>
+    <t>Spaltenbeschriftung: Kanton, Ja; Ja-Anteil; Nein; Nein-Anteil; Stimmbeteiligung</t>
+  </si>
+  <si>
+    <t>Canton, Oui, Pourcentage de oui, Non, Pourcentage de non, Taux de participation</t>
+  </si>
+  <si>
+    <t>Descrizione delle colonne: cantone, "sì"; quota di "sì"; "no"; quota di "no"; partecipazione al voto</t>
+  </si>
+  <si>
+    <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.</t>
+  </si>
+  <si>
+    <t>#Name_Vorlage_d: Schlusstabelle</t>
+  </si>
+  <si>
+    <t>#Name_Vorlage_f: tableau final</t>
+  </si>
+  <si>
+    <t>#Name_Vorlage_i: tabella dei risultati finali</t>
+  </si>
+  <si>
+    <t>#Name_Vorlage_d</t>
+  </si>
+  <si>
     <t>#Name_Vorlage_f</t>
   </si>
   <si>
-    <t>Lead_counted_cantons_one</t>
-  </si>
-  <si>
-    <t>Dépouillement terminé dans un canton</t>
-  </si>
-  <si>
-    <t>Un cantone scrutinato</t>
-  </si>
-  <si>
-    <t>Lead_counted_cantons_several</t>
-  </si>
-  <si>
-    <t>Dépouillement terminé dans #cantons_counted des 26 cantons</t>
-  </si>
-  <si>
-    <t>#cantons_counted dei 26 cantoni sono stati scrutinati</t>
-  </si>
-  <si>
-    <t>Lead_staendemehr_fail</t>
-  </si>
-  <si>
-    <t>Echec à la majorité des cantons</t>
-  </si>
-  <si>
-    <t>Lead_standemehr_success</t>
-  </si>
-  <si>
-    <t>A obtenu la majorité des cantons</t>
-  </si>
-  <si>
-    <t>Lead_Trend_no</t>
-  </si>
-  <si>
-    <t>rejeté selon une estimation de gfs.bern</t>
-  </si>
-  <si>
-    <t>Lead_Trend_yes</t>
-  </si>
-  <si>
-    <t>accepté selon une estimation de gfs.bern</t>
-  </si>
-  <si>
-    <t>Lead_Hochrechnung_yes</t>
-  </si>
-  <si>
-    <t>Lead_Hochrechnung_no</t>
-  </si>
-  <si>
-    <t>Text_missing_cantons_several</t>
-  </si>
-  <si>
-    <t>Text_missing_cantons_one</t>
-  </si>
-  <si>
-    <t>Tabelle_Header_Staende</t>
-  </si>
-  <si>
-    <t>Übersicht der bereits ausgezählten Stände: #staende_yes Ja, #staende_no Nein</t>
-  </si>
-  <si>
-    <t>#staende_yes ont accepté le texte et #staende_no l'ont rejeté</t>
-  </si>
-  <si>
-    <t>Panoramica dei cantoni già scrutinati: #staende_yes "sì", #staende_no "no"</t>
-  </si>
-  <si>
-    <t>Wenn Ständemehr nötig</t>
-  </si>
-  <si>
-    <t>Tabelle_Header_general</t>
-  </si>
-  <si>
-    <t>Übersicht der bereits ausgezählten Kantone:</t>
-  </si>
-  <si>
-    <t>Nombre de cantons qui ont terminé le dépouillement:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramica dei cantoni già scrutinati: </t>
-  </si>
-  <si>
-    <t>Wenn Ständemehr nicht nötig</t>
-  </si>
-  <si>
-    <t>Tabelle_Resultate_pro_Kanton</t>
-  </si>
-  <si>
-    <t>Spaltenbeschriftung: Kanton, Ja; Ja-Anteil; Nein; Nein-Anteil; Stimmbeteiligung</t>
-  </si>
-  <si>
-    <t>Canton, Oui, Pourcentage de oui, Non, Pourcentage de non, Taux de participation</t>
-  </si>
-  <si>
-    <t>Descrizione delle colonne: cantone, "sì"; quota di "sì"; "no"; quota di "no"; partecipazione al voto</t>
-  </si>
-  <si>
-    <t>Diese Meldung wurde automatisch auf Grundlage der aktuellsten Daten vom Bundesamt für Statistik (BFS) erstellt und vor der Publikation überprüft.</t>
-  </si>
-  <si>
-    <t>#Name_Vorlage_d: Schlusstabelle</t>
-  </si>
-  <si>
-    <t>#Name_Vorlage_f: tableau final</t>
-  </si>
-  <si>
-    <t>#Name_Vorlage_i: tabella dei risultati finali</t>
-  </si>
-  <si>
-    <t>#Name_Vorlage_d</t>
-  </si>
-  <si>
     <t>#Name_Vorlage_i</t>
   </si>
   <si>
@@ -607,15 +625,6 @@
     <t>Descrizione delle colonne: "sì"; quota di "sì"; "no"; quota di "no"; partecipazione al voto</t>
   </si>
   <si>
-    <t>#Topic_Vorlage_d</t>
-  </si>
-  <si>
-    <t>#Topic_Vorlage_f</t>
-  </si>
-  <si>
-    <t>#Topic_Vorlage_i</t>
-  </si>
-  <si>
     <t>Headline_yes</t>
   </si>
   <si>
@@ -646,7 +655,7 @@
     <t>Tendance gfs.bern: #result_yes % de oui pour #Name_Vorlage_f</t>
   </si>
   <si>
-    <t>Proiezioni della SSR: #result_yes per cento di "sì" per l'oggetto "#Name_Vorlage_i"</t>
+    <t>Proiezioni della SSR: #result_yes % di "sì" per l'oggetto "#Name_Vorlage_i"</t>
   </si>
   <si>
     <t>SRG-Hochrechnung: #result_no Prozent Nein zu #Name_Vorlage_d</t>
@@ -655,7 +664,7 @@
     <t>Tendance gfs.bern: #result_no % de non pour #Name_Vorlage_f</t>
   </si>
   <si>
-    <t>Proiezioni della SSR: #result_no per cento di "no" per l'oggetto "#Name_Vorlage_i"</t>
+    <t>Proiezioni della SSR: #result_no % di "no" per l'oggetto "#Name_Vorlage_i"</t>
   </si>
   <si>
     <t>Headline_even</t>
@@ -1223,414 +1232,414 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -1678,289 +1687,289 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -2008,215 +2017,215 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -2264,56 +2273,56 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2361,68 +2370,68 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -2470,42 +2479,42 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -2530,90 +2539,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
